--- a/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F590180-2D9E-45C3-9FB9-95FB8795A972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE8E21-D99F-4C2E-AF7E-216BC5D2DDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="713">
   <si>
     <t>Point</t>
   </si>
@@ -2697,7 +2697,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2770,7 +2770,9 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -12440,7 +12442,7 @@
   <customSheetViews>
     <customSheetView guid="{0945A032-A38A-4A2D-B08B-EF7107F0CEAA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L184" xr:uid="{5933FFB7-1173-46B1-B4FA-0BC12E21CA4F}"/>
+      <autoFilter ref="A4:L184" xr:uid="{6477AE4D-A508-4F65-8855-846F24BE7B66}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="106671713"/>
@@ -22399,7 +22401,9 @@
   </sheetPr>
   <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26948,7 +26952,7 @@
   <customSheetViews>
     <customSheetView guid="{0945A032-A38A-4A2D-B08B-EF7107F0CEAA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L229" xr:uid="{E7834E89-5F58-4DBF-88C3-F68D14DEE2BB}"/>
+      <autoFilter ref="A4:L229" xr:uid="{43C3318D-BCE6-4F34-A8E7-AADAFCD3551A}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="578644007"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE8E21-D99F-4C2E-AF7E-216BC5D2DDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4258C-2C66-46D5-9E78-D58D9E643F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2694,10 +2694,7 @@
   <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2819,7 +2816,10 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <f>A6-A5</f>
+        <v>21</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2841,7 +2841,10 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>12</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2858,7 +2861,10 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>39</v>
@@ -2871,7 +2877,10 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2886,7 +2895,10 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2904,7 +2916,10 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>41</v>
@@ -2917,7 +2932,10 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>41</v>
@@ -2933,7 +2951,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="K12" s="1"/>
     </row>
@@ -2944,7 +2965,10 @@
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -2957,7 +2981,10 @@
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2973,7 +3000,10 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2991,7 +3021,10 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="16" t="s">
@@ -3014,7 +3047,10 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3029,7 +3065,10 @@
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>49</v>
@@ -3042,7 +3081,10 @@
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="F19" s="16" t="s">
         <v>47</v>
@@ -3061,7 +3103,10 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3076,7 +3121,10 @@
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>49</v>
@@ -3089,7 +3137,10 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
@@ -3104,7 +3155,10 @@
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="F23" s="16" t="s">
         <v>47</v>
@@ -3123,7 +3177,10 @@
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3138,7 +3195,10 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>51</v>
@@ -3154,7 +3214,10 @@
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="K26" s="2" t="s">
         <v>52</v>
@@ -3170,7 +3233,10 @@
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3185,7 +3251,10 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>53</v>
@@ -3198,7 +3267,10 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="K29" s="2" t="s">
         <v>54</v>
@@ -3211,7 +3283,10 @@
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="K30" s="2" t="s">
         <v>54</v>
@@ -3225,7 +3300,10 @@
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="K31" s="2" t="s">
         <v>54</v>
@@ -3238,7 +3316,10 @@
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>55</v>
@@ -3254,7 +3335,10 @@
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
@@ -3272,7 +3356,10 @@
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>56</v>
@@ -3285,7 +3372,10 @@
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D35" s="11" t="s">
         <v>23</v>
       </c>
@@ -3300,7 +3390,10 @@
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
@@ -3315,7 +3408,10 @@
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>56</v>
@@ -3328,7 +3424,10 @@
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="K38" s="2" t="s">
         <v>57</v>
@@ -3344,7 +3443,10 @@
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3356,7 +3458,10 @@
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="K40" s="1" t="s">
         <v>58</v>
@@ -3369,7 +3474,10 @@
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3495,10 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3516,10 @@
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="K43" s="1" t="s">
         <v>60</v>
@@ -3421,7 +3535,10 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
@@ -3439,7 +3556,10 @@
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="K45" s="1" t="s">
         <v>61</v>
@@ -3452,7 +3572,10 @@
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="K46" s="1" t="s">
         <v>62</v>
@@ -3465,7 +3588,10 @@
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="K47" s="1" t="s">
         <v>62</v>
       </c>
@@ -3477,7 +3603,10 @@
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="K48" s="1" t="s">
         <v>63</v>
@@ -3490,7 +3619,10 @@
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="K49" s="1" t="s">
         <v>64</v>
@@ -3503,7 +3635,10 @@
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="K50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3515,7 +3650,10 @@
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="K51" s="1" t="s">
         <v>65</v>
@@ -3528,7 +3666,10 @@
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="K52" s="1" t="s">
         <v>66</v>
@@ -3541,7 +3682,10 @@
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="K53" s="1" t="s">
         <v>67</v>
@@ -3554,7 +3698,10 @@
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="K54" s="1" t="s">
         <v>68</v>
@@ -3567,7 +3714,10 @@
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="K55" s="1" t="s">
         <v>68</v>
@@ -3580,7 +3730,10 @@
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
@@ -3595,7 +3748,10 @@
       <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="K57" s="1" t="s">
         <v>69</v>
@@ -3608,7 +3764,10 @@
       <c r="B58" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="K58" s="1" t="s">
         <v>70</v>
@@ -3621,7 +3780,10 @@
       <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F59" s="16" t="s">
         <v>47</v>
       </c>
@@ -3639,7 +3801,10 @@
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="K60" s="1" t="s">
         <v>70</v>
@@ -3652,7 +3817,10 @@
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="K61" s="1" t="s">
         <v>71</v>
@@ -3668,7 +3836,10 @@
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>29</v>
       </c>
@@ -3683,7 +3854,10 @@
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="K63" s="1" t="s">
         <v>72</v>
@@ -3696,7 +3870,10 @@
       <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>30</v>
       </c>
@@ -3711,7 +3888,10 @@
       <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>23</v>
       </c>
@@ -3729,7 +3909,10 @@
       <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="K66" s="1" t="s">
         <v>72</v>
@@ -3742,7 +3925,10 @@
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="K67" s="1" t="s">
@@ -3756,7 +3942,10 @@
       <c r="B68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="K68" s="1" t="s">
         <v>45</v>
@@ -3769,7 +3958,10 @@
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +3974,10 @@
         <v>974</v>
       </c>
       <c r="B70" s="17"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>2</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="K70" s="1" t="s">
         <v>73</v>
@@ -3795,7 +3990,10 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="K71" s="1" t="s">
         <v>73</v>
@@ -3808,7 +4006,10 @@
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D72" s="17" t="s">
         <v>30</v>
       </c>
@@ -3823,7 +4024,10 @@
       <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="F73" s="16" t="s">
         <v>47</v>
@@ -3842,7 +4046,10 @@
       <c r="B74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="K74" s="1" t="s">
         <v>75</v>
@@ -3855,7 +4062,10 @@
       <c r="B75" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="F75" s="16" t="s">
         <v>47</v>
@@ -3874,7 +4084,10 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="K76" s="1" t="s">
         <v>75</v>
@@ -3887,7 +4100,10 @@
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>29</v>
       </c>
@@ -3902,7 +4118,10 @@
       <c r="B78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="F78" s="16" t="s">
         <v>47</v>
       </c>
@@ -3920,7 +4139,10 @@
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>29</v>
       </c>
@@ -3938,7 +4160,10 @@
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K80" s="1" t="s">
         <v>76</v>
       </c>
@@ -3950,7 +4175,10 @@
       <c r="B81" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
       </c>
@@ -3965,7 +4193,10 @@
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="K82" s="1" t="s">
         <v>76</v>
@@ -3978,7 +4209,10 @@
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
       </c>
@@ -3993,7 +4227,10 @@
       <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="K84" s="1" t="s">
         <v>77</v>
@@ -4009,7 +4246,10 @@
       <c r="B85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>31</v>
       </c>
@@ -4027,7 +4267,10 @@
       <c r="B86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="F86" s="16" t="s">
         <v>47</v>
@@ -4046,7 +4289,10 @@
       <c r="B87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D87" s="2" t="s">
         <v>23</v>
       </c>
@@ -4061,7 +4307,10 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="D88" s="2" t="s">
         <v>23</v>
       </c>
@@ -4079,7 +4328,10 @@
       <c r="B89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
       </c>
@@ -4094,7 +4346,10 @@
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>23</v>
       </c>
@@ -4109,7 +4364,10 @@
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="K91" s="1" t="s">
         <v>81</v>
@@ -4125,7 +4383,10 @@
       <c r="B92" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="K92" s="1" t="s">
         <v>81</v>
@@ -4141,7 +4402,10 @@
       <c r="B93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
       </c>
@@ -4156,7 +4420,10 @@
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="K94" s="1" t="s">
         <v>83</v>
@@ -4169,7 +4436,10 @@
       <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="K95" s="1" t="s">
         <v>84</v>
@@ -4182,7 +4452,10 @@
       <c r="B96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
       </c>
@@ -4197,7 +4470,10 @@
       <c r="B97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="F97" s="16" t="s">
         <v>47</v>
@@ -4216,7 +4492,10 @@
       <c r="B98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="K98" s="1" t="s">
         <v>86</v>
@@ -4229,7 +4508,10 @@
       <c r="B99" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="F99" s="16" t="s">
         <v>47</v>
@@ -4248,7 +4530,10 @@
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="K100" s="1" t="s">
         <v>86</v>
@@ -4261,7 +4546,10 @@
       <c r="B101" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>23</v>
       </c>
@@ -4276,7 +4564,10 @@
       <c r="B102" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="K102" s="1" t="s">
         <v>86</v>
@@ -4289,7 +4580,10 @@
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="K103" s="1" t="s">
         <v>86</v>
@@ -4302,7 +4596,10 @@
       <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="K104" s="1" t="s">
         <v>86</v>
@@ -4315,7 +4612,10 @@
       <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="K105" s="1" t="s">
         <v>87</v>
@@ -4328,7 +4628,10 @@
       <c r="B106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="K106" s="1" t="s">
         <v>88</v>
@@ -4341,7 +4644,10 @@
       <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D107" s="11" t="s">
         <v>23</v>
       </c>
@@ -4356,7 +4662,10 @@
       <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="K108" s="1" t="s">
         <v>88</v>
@@ -4369,7 +4678,10 @@
       <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="K109" s="1" t="s">
         <v>89</v>
@@ -4382,7 +4694,10 @@
       <c r="B110" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="K110" s="1" t="s">
         <v>90</v>
@@ -4395,7 +4710,10 @@
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,7 +4725,10 @@
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="K112" s="1" t="s">
         <v>91</v>
@@ -4423,7 +4744,10 @@
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="K113" s="1" t="s">
         <v>92</v>
@@ -4439,7 +4763,10 @@
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="K114" s="1" t="s">
         <v>92</v>
@@ -4452,7 +4779,10 @@
       <c r="B115" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="F115" s="16" t="s">
         <v>47</v>
@@ -4471,7 +4801,10 @@
       <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D116" s="2" t="s">
         <v>23</v>
       </c>
@@ -4486,6 +4819,10 @@
       <c r="B117" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="D117" s="11" t="s">
         <v>29</v>
       </c>
@@ -4500,6 +4837,10 @@
       <c r="B118" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="K118" s="1" t="s">
         <v>94</v>
       </c>
@@ -4511,6 +4852,10 @@
       <c r="B119" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K119" s="1" t="s">
         <v>94</v>
       </c>
@@ -4522,6 +4867,10 @@
       <c r="B120" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D120" s="11" t="s">
         <v>29</v>
       </c>
@@ -4536,6 +4885,10 @@
       <c r="B121" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K121" s="1" t="s">
         <v>94</v>
       </c>
@@ -4547,6 +4900,10 @@
       <c r="B122" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="F122" s="16" t="s">
         <v>47</v>
       </c>
@@ -4564,6 +4921,10 @@
       <c r="B123" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K123" s="1" t="s">
         <v>94</v>
       </c>
@@ -4575,6 +4936,10 @@
       <c r="B124" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="K124" s="1" t="s">
         <v>94</v>
       </c>
@@ -4586,6 +4951,10 @@
       <c r="B125" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D125" s="11" t="s">
         <v>23</v>
       </c>
@@ -4600,6 +4969,10 @@
       <c r="B126" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D126" s="11" t="s">
         <v>29</v>
       </c>
@@ -4617,6 +4990,10 @@
       <c r="B127" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="K127" s="1" t="s">
         <v>95</v>
       </c>
@@ -4628,6 +5005,10 @@
       <c r="B128" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K128" s="1" t="s">
         <v>95</v>
       </c>
@@ -4639,6 +5020,10 @@
       <c r="B129" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C129" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D129" s="11" t="s">
         <v>23</v>
       </c>
@@ -4653,6 +5038,10 @@
       <c r="B130" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C130" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F130" s="16" t="s">
         <v>47</v>
       </c>
@@ -4670,6 +5059,10 @@
       <c r="B131" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C131" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K131" s="1" t="s">
         <v>95</v>
       </c>
@@ -4681,6 +5074,10 @@
       <c r="B132" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C132" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K132" s="1" t="s">
         <v>95</v>
       </c>
@@ -4692,6 +5089,10 @@
       <c r="B133" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C133" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K133" s="1" t="s">
         <v>95</v>
       </c>
@@ -4703,6 +5104,10 @@
       <c r="B134" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C134" s="2">
+        <f t="shared" ref="C134:C184" si="2">A135-A134</f>
+        <v>6</v>
+      </c>
       <c r="D134" s="11" t="s">
         <v>29</v>
       </c>
@@ -4717,6 +5122,10 @@
       <c r="B135" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C135" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="K135" s="1" t="s">
         <v>95</v>
       </c>
@@ -4728,6 +5137,10 @@
       <c r="B136" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C136" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K136" s="1" t="s">
         <v>96</v>
       </c>
@@ -4739,6 +5152,10 @@
       <c r="B137" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C137" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D137" s="11" t="s">
         <v>29</v>
       </c>
@@ -4753,6 +5170,10 @@
       <c r="B138" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C138" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D138" s="11" t="s">
         <v>23</v>
       </c>
@@ -4767,6 +5188,10 @@
       <c r="B139" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C139" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D139" s="11" t="s">
         <v>29</v>
       </c>
@@ -4781,6 +5206,10 @@
       <c r="B140" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C140" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="D140" s="11" t="s">
         <v>23</v>
       </c>
@@ -4795,6 +5224,10 @@
       <c r="B141" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C141" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D141" s="11" t="s">
         <v>29</v>
       </c>
@@ -4809,6 +5242,10 @@
       <c r="B142" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C142" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D142" s="11" t="s">
         <v>23</v>
       </c>
@@ -4823,6 +5260,10 @@
       <c r="B143" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C143" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D143" s="11" t="s">
         <v>29</v>
       </c>
@@ -4837,6 +5278,10 @@
       <c r="B144" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C144" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>97</v>
       </c>
@@ -4851,6 +5296,10 @@
       <c r="B145" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C145" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
       <c r="K145" s="1" t="s">
         <v>98</v>
       </c>
@@ -4865,6 +5314,10 @@
       <c r="B146" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C146" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
       <c r="K146" s="1" t="s">
         <v>99</v>
       </c>
@@ -4876,6 +5329,10 @@
       <c r="B147" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C147" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D147" s="11" t="s">
         <v>29</v>
       </c>
@@ -4890,6 +5347,10 @@
       <c r="B148" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C148" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="F148" s="16" t="s">
         <v>47</v>
       </c>
@@ -4907,6 +5368,10 @@
       <c r="B149" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C149" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="K149" s="1" t="s">
         <v>100</v>
       </c>
@@ -4918,6 +5383,10 @@
       <c r="B150" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C150" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D150" s="11" t="s">
         <v>23</v>
       </c>
@@ -4932,6 +5401,10 @@
       <c r="B151" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C151" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="K151" s="1" t="s">
         <v>100</v>
       </c>
@@ -4943,6 +5416,10 @@
       <c r="B152" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C152" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="K152" s="1" t="s">
         <v>101</v>
       </c>
@@ -4954,6 +5431,10 @@
       <c r="B153" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C153" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="F153" s="16" t="s">
         <v>47</v>
       </c>
@@ -4971,6 +5452,10 @@
       <c r="B154" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="C154" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="K154" s="1" t="s">
         <v>102</v>
       </c>
@@ -4982,6 +5467,10 @@
       <c r="B155" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C155" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="D155" s="11" t="s">
         <v>29</v>
       </c>
@@ -4996,6 +5485,10 @@
       <c r="B156" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C156" s="2">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
       <c r="K156" s="1" t="s">
         <v>103</v>
       </c>
@@ -5010,6 +5503,10 @@
       <c r="B157" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C157" s="2">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
       <c r="D157" s="11" t="s">
         <v>29</v>
       </c>
@@ -5024,6 +5521,10 @@
       <c r="B158" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C158" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="D158" s="11" t="s">
         <v>23</v>
       </c>
@@ -5038,6 +5539,10 @@
       <c r="B159" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C159" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D159" s="11" t="s">
         <v>29</v>
       </c>
@@ -5052,6 +5557,10 @@
       <c r="B160" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C160" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="F160" s="16" t="s">
         <v>47</v>
       </c>
@@ -5069,6 +5578,10 @@
       <c r="B161" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C161" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D161" s="11" t="s">
         <v>29</v>
       </c>
@@ -5083,6 +5596,10 @@
       <c r="B162" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C162" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="F162" s="16" t="s">
         <v>47</v>
       </c>
@@ -5100,6 +5617,10 @@
       <c r="B163" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C163" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="K163" s="1" t="s">
         <v>107</v>
       </c>
@@ -5111,6 +5632,10 @@
       <c r="B164" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C164" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="F164" s="16" t="s">
         <v>47</v>
       </c>
@@ -5128,6 +5653,10 @@
       <c r="B165" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C165" s="2">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
       <c r="K165" s="1" t="s">
         <v>108</v>
       </c>
@@ -5142,6 +5671,10 @@
       <c r="B166" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C166" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="D166" s="14" t="s">
         <v>31</v>
       </c>
@@ -5156,6 +5689,10 @@
       <c r="B167" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C167" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="K167" s="1" t="s">
         <v>110</v>
       </c>
@@ -5167,6 +5704,10 @@
       <c r="B168" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C168" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="F168" s="16" t="s">
         <v>47</v>
       </c>
@@ -5184,6 +5725,10 @@
       <c r="B169" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C169" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D169" s="14"/>
       <c r="K169" s="1" t="s">
         <v>110</v>
@@ -5196,6 +5741,10 @@
       <c r="B170" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C170" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="D170" s="11" t="s">
         <v>23</v>
       </c>
@@ -5210,6 +5759,10 @@
       <c r="B171" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C171" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="K171" s="1" t="s">
         <v>112</v>
       </c>
@@ -5221,6 +5774,10 @@
       <c r="B172" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C172" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="K172" s="1" t="s">
         <v>112</v>
       </c>
@@ -5232,6 +5789,10 @@
       <c r="B173" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C173" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="K173" s="1" t="s">
         <v>113</v>
       </c>
@@ -5243,6 +5804,10 @@
       <c r="B174" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C174" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="K174" s="1" t="s">
         <v>114</v>
       </c>
@@ -5257,6 +5822,10 @@
       <c r="B175" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C175" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D175" s="11" t="s">
         <v>29</v>
       </c>
@@ -5274,6 +5843,10 @@
       <c r="B176" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C176" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="F176" s="16" t="s">
         <v>47</v>
       </c>
@@ -5291,6 +5864,10 @@
       <c r="B177" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C177" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="D177" s="11" t="s">
         <v>29</v>
       </c>
@@ -5305,6 +5882,10 @@
       <c r="B178" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C178" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D178" s="11" t="s">
         <v>23</v>
       </c>
@@ -5319,6 +5900,10 @@
       <c r="B179" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C179" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K179" s="1" t="s">
         <v>116</v>
       </c>
@@ -5330,6 +5915,10 @@
       <c r="B180" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C180" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D180" s="15" t="s">
         <v>117</v>
       </c>
@@ -5347,6 +5936,10 @@
       <c r="B181" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C181" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="K181" s="1" t="s">
         <v>116</v>
       </c>
@@ -5358,6 +5951,10 @@
       <c r="B182" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C182" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="F182" s="16" t="s">
         <v>47</v>
       </c>
@@ -5375,6 +5972,10 @@
       <c r="B183" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C183" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D183" s="11" t="s">
         <v>29</v>
       </c>
@@ -5388,6 +5989,10 @@
       </c>
       <c r="B184" s="11" t="s">
         <v>3</v>
+      </c>
+      <c r="C184" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>119</v>
@@ -12442,7 +13047,7 @@
   <customSheetViews>
     <customSheetView guid="{0945A032-A38A-4A2D-B08B-EF7107F0CEAA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L184" xr:uid="{6477AE4D-A508-4F65-8855-846F24BE7B66}"/>
+      <autoFilter ref="A4:L184" xr:uid="{EDDA6A38-F156-4828-8133-F601C4711235}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="106671713"/>
@@ -26952,7 +27557,7 @@
   <customSheetViews>
     <customSheetView guid="{0945A032-A38A-4A2D-B08B-EF7107F0CEAA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L229" xr:uid="{43C3318D-BCE6-4F34-A8E7-AADAFCD3551A}"/>
+      <autoFilter ref="A4:L229" xr:uid="{2D0C52AE-F031-4525-B4C9-E2DFD64518F8}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="578644007"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBAF45-C7B9-45A8-A7D4-35C23EB6C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FC28B-2E88-4ADE-8295-D1BBAD3FEDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$R$185</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$R$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$R$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -8762,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C236" si="3">A199-A198</f>
+        <f t="shared" ref="C198:C235" si="3">A199-A198</f>
         <v>2</v>
       </c>
       <c r="D198" t="s">
@@ -9421,10 +9421,10 @@
   <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9536,6 +9536,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>21</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -9550,6 +9554,10 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>1</v>
+      </c>
       <c r="K6" t="s">
         <v>219</v>
       </c>
@@ -9561,6 +9569,10 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
@@ -9575,6 +9587,10 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
@@ -9589,6 +9605,10 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="K9" t="s">
         <v>220</v>
       </c>
@@ -9600,6 +9620,10 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
@@ -9614,6 +9638,10 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -9628,6 +9656,10 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -9642,6 +9674,10 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="K13" t="s">
         <v>223</v>
       </c>
@@ -9653,6 +9689,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="K14" t="s">
         <v>223</v>
       </c>
@@ -9664,6 +9704,10 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="K15" t="s">
         <v>224</v>
       </c>
@@ -9675,6 +9719,10 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="K16" t="s">
         <v>225</v>
       </c>
@@ -9686,6 +9734,10 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
@@ -9700,6 +9752,10 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -9714,6 +9770,10 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -9728,6 +9788,10 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
@@ -9742,6 +9806,10 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -9756,6 +9824,10 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -9770,6 +9842,10 @@
       <c r="B23" t="s">
         <v>43</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K23" t="s">
         <v>228</v>
       </c>
@@ -9781,6 +9857,10 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="K24" t="s">
         <v>229</v>
       </c>
@@ -9792,6 +9872,10 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
@@ -9806,6 +9890,10 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K26" t="s">
         <v>231</v>
       </c>
@@ -9817,6 +9905,10 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
@@ -9831,6 +9923,10 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
@@ -9845,6 +9941,10 @@
       <c r="B29" t="s">
         <v>8</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D29" t="s">
         <v>42</v>
       </c>
@@ -9859,6 +9959,10 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
@@ -9873,6 +9977,10 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K31" t="s">
         <v>231</v>
       </c>
@@ -9884,6 +9992,10 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
@@ -9898,6 +10010,10 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
@@ -9912,6 +10028,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
@@ -9926,6 +10046,10 @@
       <c r="B35" t="s">
         <v>8</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
@@ -9940,6 +10064,10 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -9954,6 +10082,10 @@
       <c r="B37" t="s">
         <v>43</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K37" t="s">
         <v>235</v>
       </c>
@@ -9965,6 +10097,10 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="K38" t="s">
         <v>236</v>
       </c>
@@ -9976,6 +10112,10 @@
       <c r="B39" t="s">
         <v>2</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
@@ -9990,6 +10130,10 @@
       <c r="B40" t="s">
         <v>3</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="K40" t="s">
         <v>238</v>
       </c>
@@ -10001,6 +10145,10 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
@@ -10015,6 +10163,10 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="K42" t="s">
         <v>240</v>
       </c>
@@ -10026,6 +10178,10 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
@@ -10040,6 +10196,10 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
@@ -10054,6 +10214,10 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
@@ -10068,6 +10232,10 @@
       <c r="B46" t="s">
         <v>2</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
@@ -10082,6 +10250,10 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K47" t="s">
         <v>241</v>
       </c>
@@ -10093,6 +10265,10 @@
       <c r="B48" t="s">
         <v>2</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
@@ -10107,6 +10283,10 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
@@ -10121,6 +10301,10 @@
       <c r="B50" t="s">
         <v>2</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -10135,6 +10319,10 @@
       <c r="B51" t="s">
         <v>3</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="K51" t="s">
         <v>244</v>
       </c>
@@ -10146,6 +10334,10 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
@@ -10160,6 +10352,10 @@
       <c r="B53" t="s">
         <v>2</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
@@ -10174,6 +10370,10 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
@@ -10188,6 +10388,10 @@
       <c r="B55" t="s">
         <v>2</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D55" t="s">
         <v>26</v>
       </c>
@@ -10202,6 +10406,10 @@
       <c r="B56" t="s">
         <v>3</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K56" t="s">
         <v>247</v>
       </c>
@@ -10213,6 +10421,10 @@
       <c r="B57" t="s">
         <v>2</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
@@ -10227,6 +10439,10 @@
       <c r="B58" t="s">
         <v>2</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D58" t="s">
         <v>20</v>
       </c>
@@ -10241,6 +10457,10 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
@@ -10255,6 +10475,10 @@
       <c r="B60" t="s">
         <v>3</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="K60" t="s">
         <v>249</v>
       </c>
@@ -10266,6 +10490,10 @@
       <c r="B61" t="s">
         <v>3</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="K61" t="s">
         <v>248</v>
       </c>
@@ -10277,6 +10505,10 @@
       <c r="B62" t="s">
         <v>2</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
@@ -10291,6 +10523,10 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="K63" t="s">
         <v>250</v>
       </c>
@@ -10302,6 +10538,10 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
@@ -10316,6 +10556,10 @@
       <c r="B65" t="s">
         <v>3</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K65" t="s">
         <v>250</v>
       </c>
@@ -10327,6 +10571,10 @@
       <c r="B66" t="s">
         <v>8</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D66" t="s">
         <v>42</v>
       </c>
@@ -10341,6 +10589,10 @@
       <c r="B67" t="s">
         <v>3</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="K67" t="s">
         <v>251</v>
       </c>
@@ -10352,6 +10604,10 @@
       <c r="B68" t="s">
         <v>43</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K68" t="s">
         <v>252</v>
       </c>
@@ -10363,6 +10619,10 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
@@ -10377,6 +10637,10 @@
       <c r="B70" t="s">
         <v>3</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>6</v>
+      </c>
       <c r="K70" t="s">
         <v>252</v>
       </c>
@@ -10388,6 +10652,10 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
@@ -10402,6 +10670,10 @@
       <c r="B72" t="s">
         <v>3</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K72" t="s">
         <v>254</v>
       </c>
@@ -10413,6 +10685,10 @@
       <c r="B73" t="s">
         <v>3</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="K73" t="s">
         <v>255</v>
       </c>
@@ -10424,6 +10700,10 @@
       <c r="B74" t="s">
         <v>2</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="D74" t="s">
         <v>122</v>
       </c>
@@ -10441,6 +10721,10 @@
       <c r="B75" t="s">
         <v>3</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="K75" t="s">
         <v>257</v>
       </c>
@@ -10452,6 +10736,10 @@
       <c r="B76" t="s">
         <v>3</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="K76" t="s">
         <v>258</v>
       </c>
@@ -10463,6 +10751,10 @@
       <c r="B77" t="s">
         <v>4</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
@@ -10477,6 +10769,10 @@
       <c r="B78" t="s">
         <v>2</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
@@ -10491,6 +10787,10 @@
       <c r="B79" t="s">
         <v>4</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="D79" t="s">
         <v>27</v>
       </c>
@@ -10505,6 +10805,10 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
@@ -10519,6 +10823,10 @@
       <c r="B81" t="s">
         <v>4</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
@@ -10533,6 +10841,10 @@
       <c r="B82" t="s">
         <v>2</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D82" t="s">
         <v>26</v>
       </c>
@@ -10547,6 +10859,10 @@
       <c r="B83" t="s">
         <v>4</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
@@ -10561,6 +10877,10 @@
       <c r="B84" t="s">
         <v>2</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D84" t="s">
         <v>22</v>
       </c>
@@ -10575,6 +10895,10 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
@@ -10589,6 +10913,10 @@
       <c r="B86" t="s">
         <v>3</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="K86" t="s">
         <v>266</v>
       </c>
@@ -10600,6 +10928,10 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
@@ -10614,6 +10946,10 @@
       <c r="B88" t="s">
         <v>3</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K88" t="s">
         <v>268</v>
       </c>
@@ -10625,6 +10961,10 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D89" t="s">
         <v>42</v>
       </c>
@@ -10639,6 +10979,10 @@
       <c r="B90" t="s">
         <v>4</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
@@ -10653,6 +10997,10 @@
       <c r="B91" t="s">
         <v>43</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K91" t="s">
         <v>268</v>
       </c>
@@ -10664,6 +11012,10 @@
       <c r="B92" t="s">
         <v>4</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D92" t="s">
         <v>27</v>
       </c>
@@ -10678,6 +11030,10 @@
       <c r="B93" t="s">
         <v>2</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D93" t="s">
         <v>23</v>
       </c>
@@ -10692,6 +11048,10 @@
       <c r="B94" t="s">
         <v>3</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="K94" t="s">
         <v>270</v>
       </c>
@@ -10703,6 +11063,10 @@
       <c r="B95" t="s">
         <v>2</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D95" t="s">
         <v>22</v>
       </c>
@@ -10717,6 +11081,10 @@
       <c r="B96" t="s">
         <v>43</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K96" t="s">
         <v>271</v>
       </c>
@@ -10728,6 +11096,10 @@
       <c r="B97" t="s">
         <v>4</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
@@ -10742,6 +11114,10 @@
       <c r="B98" t="s">
         <v>43</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="K98" t="s">
         <v>271</v>
       </c>
@@ -10753,6 +11129,10 @@
       <c r="B99" t="s">
         <v>4</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
@@ -10767,6 +11147,10 @@
       <c r="B100" t="s">
         <v>3</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
       <c r="K100" t="s">
         <v>272</v>
       </c>
@@ -10778,6 +11162,10 @@
       <c r="B101" t="s">
         <v>4</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D101" t="s">
         <v>29</v>
       </c>
@@ -10792,6 +11180,10 @@
       <c r="B102" t="s">
         <v>4</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="D102" t="s">
         <v>27</v>
       </c>
@@ -10806,6 +11198,10 @@
       <c r="B103" t="s">
         <v>3</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="K103" t="s">
         <v>275</v>
       </c>
@@ -10817,6 +11213,10 @@
       <c r="B104" t="s">
         <v>4</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D104" t="s">
         <v>27</v>
       </c>
@@ -10831,6 +11231,10 @@
       <c r="B105" t="s">
         <v>3</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="K105" t="s">
         <v>276</v>
       </c>
@@ -10842,6 +11246,10 @@
       <c r="B106" t="s">
         <v>4</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D106" t="s">
         <v>27</v>
       </c>
@@ -10856,6 +11264,10 @@
       <c r="B107" t="s">
         <v>3</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K107" t="s">
         <v>277</v>
       </c>
@@ -10867,6 +11279,10 @@
       <c r="B108" t="s">
         <v>3</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="K108" t="s">
         <v>278</v>
       </c>
@@ -10878,6 +11294,10 @@
       <c r="B109" t="s">
         <v>3</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K109" t="s">
         <v>279</v>
       </c>
@@ -10889,6 +11309,10 @@
       <c r="B110" t="s">
         <v>4</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
@@ -10903,6 +11327,10 @@
       <c r="B111" t="s">
         <v>3</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="K111" t="s">
         <v>279</v>
       </c>
@@ -10914,6 +11342,10 @@
       <c r="B112" t="s">
         <v>4</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D112" t="s">
         <v>27</v>
       </c>
@@ -10928,6 +11360,10 @@
       <c r="B113" t="s">
         <v>2</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D113" t="s">
         <v>22</v>
       </c>
@@ -10942,6 +11378,10 @@
       <c r="B114" t="s">
         <v>4</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
@@ -10956,6 +11396,10 @@
       <c r="B115" t="s">
         <v>3</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="K115" t="s">
         <v>281</v>
       </c>
@@ -10967,6 +11411,10 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
@@ -10981,6 +11429,10 @@
       <c r="B117" t="s">
         <v>3</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="K117" t="s">
         <v>282</v>
       </c>
@@ -10992,6 +11444,10 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
@@ -11006,6 +11462,10 @@
       <c r="B119" t="s">
         <v>2</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D119" t="s">
         <v>21</v>
       </c>
@@ -11020,6 +11480,10 @@
       <c r="B120" t="s">
         <v>4</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
@@ -11034,6 +11498,10 @@
       <c r="B121" t="s">
         <v>2</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D121" t="s">
         <v>26</v>
       </c>
@@ -11048,6 +11516,10 @@
       <c r="B122" t="s">
         <v>2</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="D122" t="s">
         <v>118</v>
       </c>
@@ -11062,6 +11534,10 @@
       <c r="B123" t="s">
         <v>4</v>
       </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="D123" t="s">
         <v>27</v>
       </c>
@@ -11076,6 +11552,10 @@
       <c r="B124" t="s">
         <v>2</v>
       </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
@@ -11090,6 +11570,10 @@
       <c r="B125" t="s">
         <v>3</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K125" t="s">
         <v>287</v>
       </c>
@@ -11101,6 +11585,10 @@
       <c r="B126" t="s">
         <v>4</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
@@ -11115,6 +11603,10 @@
       <c r="B127" t="s">
         <v>2</v>
       </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D127" t="s">
         <v>22</v>
       </c>
@@ -11129,6 +11621,10 @@
       <c r="B128" t="s">
         <v>8</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D128" t="s">
         <v>42</v>
       </c>
@@ -11143,6 +11639,10 @@
       <c r="B129" t="s">
         <v>2</v>
       </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D129" t="s">
         <v>118</v>
       </c>
@@ -11157,6 +11657,10 @@
       <c r="B130" t="s">
         <v>2</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="D130" t="s">
         <v>22</v>
       </c>
@@ -11171,6 +11675,10 @@
       <c r="B131" t="s">
         <v>2</v>
       </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
       <c r="D131" t="s">
         <v>22</v>
       </c>
@@ -11185,6 +11693,10 @@
       <c r="B132" t="s">
         <v>3</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
       <c r="K132" t="s">
         <v>291</v>
       </c>
@@ -11196,6 +11708,10 @@
       <c r="B133" t="s">
         <v>3</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="K133" t="s">
         <v>292</v>
       </c>
@@ -11207,6 +11723,10 @@
       <c r="B134" t="s">
         <v>43</v>
       </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C161" si="2">A135-A134</f>
+        <v>10</v>
+      </c>
       <c r="K134" t="s">
         <v>293</v>
       </c>
@@ -11218,6 +11738,10 @@
       <c r="B135" t="s">
         <v>3</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="K135" t="s">
         <v>294</v>
       </c>
@@ -11229,6 +11753,10 @@
       <c r="B136" t="s">
         <v>4</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
@@ -11243,6 +11771,10 @@
       <c r="B137" t="s">
         <v>3</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="K137" t="s">
         <v>295</v>
       </c>
@@ -11254,6 +11786,10 @@
       <c r="B138" t="s">
         <v>3</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="K138" t="s">
         <v>295</v>
       </c>
@@ -11265,6 +11801,10 @@
       <c r="B139" t="s">
         <v>2</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="D139" t="s">
         <v>22</v>
       </c>
@@ -11279,6 +11819,10 @@
       <c r="B140" t="s">
         <v>4</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
@@ -11293,6 +11837,10 @@
       <c r="B141" t="s">
         <v>43</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K141" t="s">
         <v>297</v>
       </c>
@@ -11304,6 +11852,10 @@
       <c r="B142" t="s">
         <v>4</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="D142" t="s">
         <v>27</v>
       </c>
@@ -11318,6 +11870,10 @@
       <c r="B143" t="s">
         <v>3</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
       <c r="K143" t="s">
         <v>298</v>
       </c>
@@ -11329,6 +11885,10 @@
       <c r="B144" t="s">
         <v>4</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="D144" t="s">
         <v>27</v>
       </c>
@@ -11343,6 +11903,10 @@
       <c r="B145" t="s">
         <v>43</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
       <c r="K145" t="s">
         <v>299</v>
       </c>
@@ -11354,6 +11918,10 @@
       <c r="B146" t="s">
         <v>4</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
@@ -11368,6 +11936,10 @@
       <c r="B147" t="s">
         <v>3</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
       <c r="K147" t="s">
         <v>300</v>
       </c>
@@ -11379,6 +11951,10 @@
       <c r="B148" t="s">
         <v>3</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="K148" t="s">
         <v>301</v>
       </c>
@@ -11390,6 +11966,10 @@
       <c r="B149" t="s">
         <v>4</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D149" t="s">
         <v>27</v>
       </c>
@@ -11404,6 +11984,10 @@
       <c r="B150" t="s">
         <v>3</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
       <c r="K150" t="s">
         <v>303</v>
       </c>
@@ -11415,6 +11999,10 @@
       <c r="B151" t="s">
         <v>3</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="K151" t="s">
         <v>304</v>
       </c>
@@ -11426,6 +12014,10 @@
       <c r="B152" t="s">
         <v>2</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="D152" t="s">
         <v>26</v>
       </c>
@@ -11440,6 +12032,10 @@
       <c r="B153" t="s">
         <v>4</v>
       </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D153" t="s">
         <v>27</v>
       </c>
@@ -11454,6 +12050,10 @@
       <c r="B154" t="s">
         <v>3</v>
       </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="K154" t="s">
         <v>304</v>
       </c>
@@ -11465,6 +12065,10 @@
       <c r="B155" t="s">
         <v>4</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
@@ -11479,6 +12083,10 @@
       <c r="B156" t="s">
         <v>3</v>
       </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="K156" t="s">
         <v>306</v>
       </c>
@@ -11490,6 +12098,10 @@
       <c r="B157" t="s">
         <v>3</v>
       </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="D157" t="s">
         <v>27</v>
       </c>
@@ -11504,6 +12116,10 @@
       <c r="B158" t="s">
         <v>4</v>
       </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="K158" t="s">
         <v>306</v>
       </c>
@@ -11515,6 +12131,10 @@
       <c r="B159" t="s">
         <v>3</v>
       </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="K159" t="s">
         <v>306</v>
       </c>
@@ -11526,6 +12146,10 @@
       <c r="B160" t="s">
         <v>3</v>
       </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="K160" t="s">
         <v>307</v>
       </c>
@@ -11536,6 +12160,10 @@
       </c>
       <c r="B161" t="s">
         <v>2</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
         <v>22</v>
@@ -11559,10 +12187,10 @@
   <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11676,6 +12304,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>109</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -11690,6 +12322,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>50</v>
+      </c>
       <c r="K6" t="s">
         <v>310</v>
       </c>
@@ -11701,6 +12337,10 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
@@ -11715,6 +12355,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="K8" t="s">
         <v>312</v>
       </c>
@@ -11726,6 +12370,10 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
@@ -11740,6 +12388,10 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -11754,6 +12406,10 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
@@ -11768,6 +12424,10 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="K12" t="s">
         <v>313</v>
       </c>
@@ -11779,6 +12439,10 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
@@ -11793,6 +12457,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="K14" t="s">
         <v>315</v>
       </c>
@@ -11804,6 +12472,10 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -11818,6 +12490,10 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K16" t="s">
         <v>317</v>
       </c>
@@ -11829,6 +12505,10 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -11843,6 +12523,10 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K18" t="s">
         <v>317</v>
       </c>
@@ -11854,6 +12538,10 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -11868,6 +12556,10 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -11882,6 +12574,10 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
       <c r="K21" t="s">
         <v>318</v>
       </c>
@@ -11893,6 +12589,10 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
@@ -11907,6 +12607,10 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -11921,6 +12625,10 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
@@ -11935,6 +12643,10 @@
       <c r="B25" t="s">
         <v>43</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K25" t="s">
         <v>320</v>
       </c>
@@ -11946,6 +12658,10 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
@@ -11960,6 +12676,10 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
@@ -11974,6 +12694,10 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
@@ -11988,6 +12712,10 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -12002,6 +12730,10 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
@@ -12016,6 +12748,10 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
@@ -12030,6 +12766,10 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
@@ -12044,6 +12784,10 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
@@ -12058,6 +12802,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D34" t="s">
         <v>29</v>
       </c>
@@ -12072,6 +12820,10 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
@@ -12086,6 +12838,10 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D36" t="s">
         <v>29</v>
       </c>
@@ -12100,6 +12856,10 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
@@ -12114,6 +12874,10 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
@@ -12128,6 +12892,10 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
@@ -12142,6 +12910,10 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
@@ -12156,6 +12928,10 @@
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
@@ -12170,6 +12946,10 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
@@ -12184,6 +12964,10 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
@@ -12198,6 +12982,10 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
@@ -12212,6 +13000,10 @@
       <c r="B45" t="s">
         <v>2</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
@@ -12226,6 +13018,10 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
@@ -12240,6 +13036,10 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
@@ -12254,6 +13054,10 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
@@ -12268,6 +13072,10 @@
       <c r="B49" t="s">
         <v>43</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="K49" t="s">
         <v>333</v>
       </c>
@@ -12282,6 +13090,10 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
@@ -12299,6 +13111,10 @@
       <c r="B51" t="s">
         <v>2</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D51" t="s">
         <v>21</v>
       </c>
@@ -12316,6 +13132,10 @@
       <c r="B52" t="s">
         <v>43</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K52" t="s">
         <v>333</v>
       </c>
@@ -12330,6 +13150,10 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
@@ -12344,6 +13168,10 @@
       <c r="B54" t="s">
         <v>2</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D54" t="s">
         <v>21</v>
       </c>
@@ -12358,6 +13186,10 @@
       <c r="B55" t="s">
         <v>2</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
@@ -12372,6 +13204,10 @@
       <c r="B56" t="s">
         <v>5</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K56" t="s">
         <v>337</v>
       </c>
@@ -12383,6 +13219,10 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
@@ -12397,6 +13237,10 @@
       <c r="B58" t="s">
         <v>2</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
@@ -12411,6 +13255,10 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D59" t="s">
         <v>42</v>
       </c>
@@ -12425,6 +13273,10 @@
       <c r="B60" t="s">
         <v>2</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
@@ -12439,6 +13291,10 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
@@ -12453,6 +13309,10 @@
       <c r="B62" t="s">
         <v>2</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
@@ -12467,6 +13327,10 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="K63" t="s">
         <v>341</v>
       </c>
@@ -12478,6 +13342,10 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
@@ -12492,6 +13360,10 @@
       <c r="B65" t="s">
         <v>2</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
@@ -12506,6 +13378,10 @@
       <c r="B66" t="s">
         <v>4</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
@@ -12520,6 +13396,10 @@
       <c r="B67" t="s">
         <v>2</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D67" t="s">
         <v>22</v>
       </c>
@@ -12534,6 +13414,10 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D68" t="s">
         <v>27</v>
       </c>
@@ -12548,6 +13432,10 @@
       <c r="B69" t="s">
         <v>3</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K69" t="s">
         <v>345</v>
       </c>
@@ -12559,6 +13447,10 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C123" si="1">A71-A70</f>
+        <v>4</v>
+      </c>
       <c r="D70" t="s">
         <v>27</v>
       </c>
@@ -12573,6 +13465,10 @@
       <c r="B71" t="s">
         <v>2</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D71" t="s">
         <v>21</v>
       </c>
@@ -12587,6 +13483,10 @@
       <c r="B72" t="s">
         <v>4</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D72" t="s">
         <v>27</v>
       </c>
@@ -12601,6 +13501,10 @@
       <c r="B73" t="s">
         <v>2</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
@@ -12615,6 +13519,10 @@
       <c r="B74" t="s">
         <v>4</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
@@ -12629,6 +13537,10 @@
       <c r="B75" t="s">
         <v>2</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
@@ -12643,6 +13555,10 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
@@ -12657,6 +13573,10 @@
       <c r="B77" t="s">
         <v>5</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K77" t="s">
         <v>348</v>
       </c>
@@ -12668,6 +13588,10 @@
       <c r="B78" t="s">
         <v>4</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D78" t="s">
         <v>27</v>
       </c>
@@ -12682,6 +13606,10 @@
       <c r="B79" t="s">
         <v>4</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
@@ -12696,6 +13624,10 @@
       <c r="B80" t="s">
         <v>8</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="D80" t="s">
         <v>42</v>
       </c>
@@ -12710,6 +13642,10 @@
       <c r="B81" t="s">
         <v>4</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
@@ -12724,6 +13660,10 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
@@ -12738,6 +13678,10 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D83" t="s">
         <v>42</v>
       </c>
@@ -12752,6 +13696,10 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
@@ -12766,6 +13714,10 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
@@ -12780,6 +13732,10 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="D86" t="s">
         <v>42</v>
       </c>
@@ -12794,6 +13750,10 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="D87" t="s">
         <v>29</v>
       </c>
@@ -12808,6 +13768,10 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D88" t="s">
         <v>27</v>
       </c>
@@ -12822,6 +13786,10 @@
       <c r="B89" t="s">
         <v>4</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D89" t="s">
         <v>29</v>
       </c>
@@ -12836,6 +13804,10 @@
       <c r="B90" t="s">
         <v>4</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
@@ -12850,6 +13822,10 @@
       <c r="B91" t="s">
         <v>2</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D91" t="s">
         <v>21</v>
       </c>
@@ -12864,6 +13840,10 @@
       <c r="B92" t="s">
         <v>4</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D92" t="s">
         <v>27</v>
       </c>
@@ -12878,6 +13858,10 @@
       <c r="B93" t="s">
         <v>2</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D93" t="s">
         <v>23</v>
       </c>
@@ -12892,6 +13876,10 @@
       <c r="B94" t="s">
         <v>4</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="D94" t="s">
         <v>27</v>
       </c>
@@ -12906,6 +13894,10 @@
       <c r="B95" t="s">
         <v>4</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D95" t="s">
         <v>29</v>
       </c>
@@ -12920,6 +13912,10 @@
       <c r="B96" t="s">
         <v>4</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="D96" t="s">
         <v>27</v>
       </c>
@@ -12934,6 +13930,10 @@
       <c r="B97" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -12942,6 +13942,10 @@
       <c r="B98" t="s">
         <v>4</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
@@ -12956,6 +13960,10 @@
       <c r="B99" t="s">
         <v>4</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D99" t="s">
         <v>29</v>
       </c>
@@ -12970,6 +13978,10 @@
       <c r="B100" t="s">
         <v>4</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D100" t="s">
         <v>27</v>
       </c>
@@ -12984,6 +13996,10 @@
       <c r="B101" t="s">
         <v>2</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D101" t="s">
         <v>21</v>
       </c>
@@ -12998,6 +14014,10 @@
       <c r="B102" t="s">
         <v>4</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
       <c r="D102" t="s">
         <v>27</v>
       </c>
@@ -13012,6 +14032,10 @@
       <c r="B103" t="s">
         <v>7</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D103" t="s">
         <v>42</v>
       </c>
@@ -13026,6 +14050,10 @@
       <c r="B104" t="s">
         <v>4</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D104" t="s">
         <v>27</v>
       </c>
@@ -13040,6 +14068,10 @@
       <c r="B105" t="s">
         <v>7</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D105" t="s">
         <v>42</v>
       </c>
@@ -13054,6 +14086,10 @@
       <c r="B106" t="s">
         <v>4</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D106" t="s">
         <v>27</v>
       </c>
@@ -13068,6 +14104,10 @@
       <c r="B107" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -13076,6 +14116,10 @@
       <c r="B108" t="s">
         <v>4</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
       <c r="D108" t="s">
         <v>27</v>
       </c>
@@ -13090,6 +14134,10 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
@@ -13104,6 +14152,10 @@
       <c r="B110" t="s">
         <v>4</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
@@ -13118,6 +14170,10 @@
       <c r="B111" t="s">
         <v>2</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D111" t="s">
         <v>22</v>
       </c>
@@ -13132,6 +14188,10 @@
       <c r="B112" t="s">
         <v>4</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D112" t="s">
         <v>27</v>
       </c>
@@ -13146,6 +14206,10 @@
       <c r="B113" t="s">
         <v>2</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D113" t="s">
         <v>26</v>
       </c>
@@ -13160,6 +14224,10 @@
       <c r="B114" t="s">
         <v>4</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
@@ -13174,6 +14242,10 @@
       <c r="B115" t="s">
         <v>2</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D115" t="s">
         <v>22</v>
       </c>
@@ -13188,6 +14260,10 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
@@ -13202,6 +14278,10 @@
       <c r="B117" t="s">
         <v>4</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D117" t="s">
         <v>29</v>
       </c>
@@ -13216,6 +14296,10 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
@@ -13230,6 +14314,10 @@
       <c r="B119" t="s">
         <v>2</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D119" t="s">
         <v>23</v>
       </c>
@@ -13244,6 +14332,10 @@
       <c r="B120" t="s">
         <v>4</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
@@ -13258,6 +14350,10 @@
       <c r="B121" t="s">
         <v>43</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K121" t="s">
         <v>370</v>
       </c>
@@ -13269,6 +14365,10 @@
       <c r="B122" t="s">
         <v>8</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D122" t="s">
         <v>42</v>
       </c>
@@ -13282,6 +14382,10 @@
       </c>
       <c r="B123" t="s">
         <v>3</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
         <v>371</v>
@@ -13305,10 +14409,10 @@
   <dimension ref="A1:R199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K199" sqref="K199"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13422,6 +14526,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -13436,6 +14544,10 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>2</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -13449,6 +14561,10 @@
       </c>
       <c r="B7" t="s">
         <v>43</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>373</v>
@@ -13461,6 +14577,10 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
@@ -13475,6 +14595,10 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K9" t="s">
         <v>373</v>
       </c>
@@ -13486,6 +14610,10 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
@@ -13500,6 +14628,10 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -13514,6 +14646,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
@@ -13528,6 +14664,10 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K13" t="s">
         <v>373</v>
       </c>
@@ -13539,6 +14679,10 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
@@ -13553,6 +14697,10 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
@@ -13567,6 +14715,10 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -13581,6 +14733,10 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
@@ -13595,6 +14751,10 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
@@ -13609,6 +14769,10 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -13623,6 +14787,10 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
@@ -13637,6 +14805,10 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
@@ -13651,6 +14823,10 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
@@ -13665,6 +14841,10 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
       <c r="K23" t="s">
         <v>378</v>
       </c>
@@ -13676,6 +14856,10 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
@@ -13690,6 +14874,10 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
@@ -13704,6 +14892,10 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -13718,6 +14910,10 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
@@ -13732,6 +14928,10 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
@@ -13746,6 +14946,10 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
@@ -13760,6 +14964,10 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
@@ -13774,6 +14982,10 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
@@ -13788,6 +15000,10 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
@@ -13802,6 +15018,10 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
@@ -13816,6 +15036,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
@@ -13830,6 +15054,10 @@
       <c r="B35" t="s">
         <v>2</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
@@ -13844,6 +15072,10 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -13858,6 +15090,10 @@
       <c r="B37" t="s">
         <v>2</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
@@ -13872,6 +15108,10 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
@@ -13886,6 +15126,10 @@
       <c r="B39" t="s">
         <v>2</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
@@ -13900,6 +15144,10 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -13914,6 +15162,10 @@
       <c r="B41" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -13922,6 +15174,10 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
@@ -13936,6 +15192,10 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
@@ -13950,6 +15210,10 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
@@ -13964,6 +15228,10 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
@@ -13978,6 +15246,10 @@
       <c r="B46" t="s">
         <v>43</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K46" t="s">
         <v>387</v>
       </c>
@@ -13989,6 +15261,10 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
@@ -14003,6 +15279,10 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
@@ -14017,6 +15297,10 @@
       <c r="B49" t="s">
         <v>2</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="D49" t="s">
         <v>122</v>
       </c>
@@ -14031,6 +15315,10 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
@@ -14045,6 +15333,10 @@
       <c r="B51" t="s">
         <v>2</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D51" t="s">
         <v>21</v>
       </c>
@@ -14059,6 +15351,10 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
@@ -14073,6 +15369,10 @@
       <c r="B53" t="s">
         <v>2</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
@@ -14087,6 +15387,10 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D54" t="s">
         <v>29</v>
       </c>
@@ -14101,6 +15405,10 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
@@ -14115,6 +15423,10 @@
       <c r="B56" t="s">
         <v>2</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
@@ -14129,6 +15441,10 @@
       <c r="B57" t="s">
         <v>3</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="K57" t="s">
         <v>391</v>
       </c>
@@ -14140,6 +15456,10 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
@@ -14154,6 +15474,10 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
@@ -14168,6 +15492,10 @@
       <c r="B60" t="s">
         <v>2</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
@@ -14182,6 +15510,10 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
@@ -14199,6 +15531,10 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D62" t="s">
         <v>29</v>
       </c>
@@ -14216,6 +15552,10 @@
       <c r="B63" t="s">
         <v>4</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
@@ -14230,6 +15570,10 @@
       <c r="B64" t="s">
         <v>3</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K64" t="s">
         <v>396</v>
       </c>
@@ -14241,6 +15585,10 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
@@ -14255,6 +15603,10 @@
       <c r="B66" t="s">
         <v>3</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="K66" t="s">
         <v>397</v>
       </c>
@@ -14266,6 +15618,10 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
@@ -14280,6 +15636,10 @@
       <c r="B68" t="s">
         <v>2</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D68" t="s">
         <v>21</v>
       </c>
@@ -14294,6 +15654,10 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
@@ -14308,6 +15672,10 @@
       <c r="B70" t="s">
         <v>2</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>38</v>
+      </c>
       <c r="D70" t="s">
         <v>122</v>
       </c>
@@ -14322,6 +15690,10 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
@@ -14336,6 +15708,10 @@
       <c r="B72" t="s">
         <v>2</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
@@ -14350,6 +15726,10 @@
       <c r="B73" t="s">
         <v>4</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
@@ -14364,6 +15744,10 @@
       <c r="B74" t="s">
         <v>2</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
@@ -14378,6 +15762,10 @@
       <c r="B75" t="s">
         <v>4</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
@@ -14392,6 +15780,10 @@
       <c r="B76" t="s">
         <v>2</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
@@ -14406,6 +15798,10 @@
       <c r="B77" t="s">
         <v>2</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D77" t="s">
         <v>22</v>
       </c>
@@ -14420,6 +15816,10 @@
       <c r="B78" t="s">
         <v>4</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="D78" t="s">
         <v>27</v>
       </c>
@@ -14434,6 +15834,10 @@
       <c r="B79" t="s">
         <v>2</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="D79" t="s">
         <v>122</v>
       </c>
@@ -14448,6 +15852,10 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
@@ -14462,6 +15870,10 @@
       <c r="B81" t="s">
         <v>2</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D81" t="s">
         <v>23</v>
       </c>
@@ -14476,6 +15888,10 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
@@ -14490,6 +15906,10 @@
       <c r="B83" t="s">
         <v>4</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
@@ -14504,6 +15924,10 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
@@ -14518,6 +15942,10 @@
       <c r="B85" t="s">
         <v>8</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D85" t="s">
         <v>42</v>
       </c>
@@ -14532,6 +15960,10 @@
       <c r="B86" t="s">
         <v>4</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D86" t="s">
         <v>27</v>
       </c>
@@ -14546,6 +15978,10 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D87" t="s">
         <v>29</v>
       </c>
@@ -14560,6 +15996,10 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="D88" t="s">
         <v>27</v>
       </c>
@@ -14574,6 +16014,10 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D89" t="s">
         <v>42</v>
       </c>
@@ -14588,6 +16032,10 @@
       <c r="B90" t="s">
         <v>2</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D90" t="s">
         <v>118</v>
       </c>
@@ -14602,6 +16050,10 @@
       <c r="B91" t="s">
         <v>4</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D91" t="s">
         <v>27</v>
       </c>
@@ -14616,6 +16068,10 @@
       <c r="B92" t="s">
         <v>2</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D92" t="s">
         <v>118</v>
       </c>
@@ -14630,6 +16086,10 @@
       <c r="B93" t="s">
         <v>4</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="D93" t="s">
         <v>27</v>
       </c>
@@ -14644,6 +16104,10 @@
       <c r="B94" t="s">
         <v>8</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D94" t="s">
         <v>42</v>
       </c>
@@ -14658,6 +16122,10 @@
       <c r="B95" t="s">
         <v>4</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
@@ -14672,6 +16140,10 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D96" t="s">
         <v>118</v>
       </c>
@@ -14686,6 +16158,10 @@
       <c r="B97" t="s">
         <v>5</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K97" t="s">
         <v>408</v>
       </c>
@@ -14697,6 +16173,10 @@
       <c r="B98" t="s">
         <v>2</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D98" t="s">
         <v>122</v>
       </c>
@@ -14711,6 +16191,10 @@
       <c r="B99" t="s">
         <v>2</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D99" t="s">
         <v>23</v>
       </c>
@@ -14725,6 +16209,10 @@
       <c r="B100" t="s">
         <v>4</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D100" t="s">
         <v>27</v>
       </c>
@@ -14739,6 +16227,10 @@
       <c r="B101" t="s">
         <v>2</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D101" t="s">
         <v>122</v>
       </c>
@@ -14753,6 +16245,10 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D102" t="s">
         <v>42</v>
       </c>
@@ -14767,6 +16263,10 @@
       <c r="B103" t="s">
         <v>4</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
       <c r="D103" t="s">
         <v>27</v>
       </c>
@@ -14781,6 +16281,10 @@
       <c r="B104" t="s">
         <v>2</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D104" t="s">
         <v>21</v>
       </c>
@@ -14795,6 +16299,10 @@
       <c r="B105" t="s">
         <v>4</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
@@ -14809,6 +16317,10 @@
       <c r="B106" t="s">
         <v>4</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
@@ -14823,6 +16335,10 @@
       <c r="B107" t="s">
         <v>2</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D107" t="s">
         <v>122</v>
       </c>
@@ -14837,6 +16353,10 @@
       <c r="B108" t="s">
         <v>2</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D108" t="s">
         <v>23</v>
       </c>
@@ -14851,6 +16371,10 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
@@ -14865,6 +16389,10 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D110" t="s">
         <v>42</v>
       </c>
@@ -14879,6 +16407,10 @@
       <c r="B111" t="s">
         <v>4</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
@@ -14893,6 +16425,10 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D112" t="s">
         <v>42</v>
       </c>
@@ -14907,6 +16443,10 @@
       <c r="B113" t="s">
         <v>2</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D113" t="s">
         <v>21</v>
       </c>
@@ -14921,6 +16461,10 @@
       <c r="B114" t="s">
         <v>4</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
@@ -14935,6 +16479,10 @@
       <c r="B115" t="s">
         <v>3</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K115" t="s">
         <v>416</v>
       </c>
@@ -14946,6 +16494,10 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
@@ -14960,6 +16512,10 @@
       <c r="B117" t="s">
         <v>2</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D117" t="s">
         <v>24</v>
       </c>
@@ -14974,6 +16530,10 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
@@ -14988,6 +16548,10 @@
       <c r="B119" t="s">
         <v>2</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D119" t="s">
         <v>21</v>
       </c>
@@ -15002,6 +16566,10 @@
       <c r="B120" t="s">
         <v>4</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
@@ -15016,6 +16584,10 @@
       <c r="B121" t="s">
         <v>2</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D121" t="s">
         <v>21</v>
       </c>
@@ -15030,6 +16602,10 @@
       <c r="B122" t="s">
         <v>4</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D122" t="s">
         <v>27</v>
       </c>
@@ -15044,6 +16620,10 @@
       <c r="B123" t="s">
         <v>2</v>
       </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D123" t="s">
         <v>21</v>
       </c>
@@ -15058,6 +16638,10 @@
       <c r="B124" t="s">
         <v>4</v>
       </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D124" t="s">
         <v>27</v>
       </c>
@@ -15072,6 +16656,10 @@
       <c r="B125" t="s">
         <v>2</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D125" t="s">
         <v>21</v>
       </c>
@@ -15086,6 +16674,10 @@
       <c r="B126" t="s">
         <v>4</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
@@ -15100,6 +16692,10 @@
       <c r="B127" t="s">
         <v>4</v>
       </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
@@ -15114,6 +16710,10 @@
       <c r="B128" t="s">
         <v>4</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="D128" t="s">
         <v>27</v>
       </c>
@@ -15128,6 +16728,10 @@
       <c r="B129" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
@@ -15136,6 +16740,10 @@
       <c r="B130" t="s">
         <v>4</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D130" t="s">
         <v>27</v>
       </c>
@@ -15150,6 +16758,10 @@
       <c r="B131" t="s">
         <v>2</v>
       </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
@@ -15164,6 +16776,10 @@
       <c r="B132" t="s">
         <v>4</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="D132" t="s">
         <v>27</v>
       </c>
@@ -15178,6 +16794,10 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="D133" t="s">
         <v>42</v>
       </c>
@@ -15192,6 +16812,10 @@
       <c r="B134" t="s">
         <v>4</v>
       </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C197" si="2">A135-A134</f>
+        <v>10</v>
+      </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
@@ -15206,6 +16830,10 @@
       <c r="B135" t="s">
         <v>2</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D135" t="s">
         <v>21</v>
       </c>
@@ -15220,6 +16848,10 @@
       <c r="B136" t="s">
         <v>4</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
@@ -15234,6 +16866,10 @@
       <c r="B137" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
       <c r="K137" t="s">
         <v>425</v>
       </c>
@@ -15245,6 +16881,10 @@
       <c r="B138" t="s">
         <v>4</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="D138" t="s">
         <v>27</v>
       </c>
@@ -15259,6 +16899,10 @@
       <c r="B139" t="s">
         <v>2</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D139" t="s">
         <v>22</v>
       </c>
@@ -15273,6 +16917,10 @@
       <c r="B140" t="s">
         <v>4</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
@@ -15287,6 +16935,10 @@
       <c r="B141" t="s">
         <v>2</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D141" t="s">
         <v>21</v>
       </c>
@@ -15301,6 +16953,10 @@
       <c r="B142" t="s">
         <v>4</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
       <c r="D142" t="s">
         <v>27</v>
       </c>
@@ -15315,6 +16971,10 @@
       <c r="B143" t="s">
         <v>3</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="K143" t="s">
         <v>429</v>
       </c>
@@ -15326,6 +16986,10 @@
       <c r="B144" t="s">
         <v>4</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="D144" t="s">
         <v>27</v>
       </c>
@@ -15340,6 +17004,10 @@
       <c r="B145" t="s">
         <v>3</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="K145" t="s">
         <v>431</v>
       </c>
@@ -15351,6 +17019,10 @@
       <c r="B146" t="s">
         <v>4</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
@@ -15365,6 +17037,10 @@
       <c r="B147" t="s">
         <v>2</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D147" t="s">
         <v>21</v>
       </c>
@@ -15379,6 +17055,10 @@
       <c r="B148" t="s">
         <v>4</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D148" t="s">
         <v>27</v>
       </c>
@@ -15393,6 +17073,10 @@
       <c r="B149" t="s">
         <v>2</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D149" t="s">
         <v>21</v>
       </c>
@@ -15407,6 +17091,10 @@
       <c r="B150" t="s">
         <v>4</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="D150" t="s">
         <v>27</v>
       </c>
@@ -15421,6 +17109,10 @@
       <c r="B151" t="s">
         <v>2</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D151" t="s">
         <v>22</v>
       </c>
@@ -15435,6 +17127,10 @@
       <c r="B152" t="s">
         <v>4</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D152" t="s">
         <v>27</v>
       </c>
@@ -15449,6 +17145,10 @@
       <c r="B153" t="s">
         <v>2</v>
       </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D153" t="s">
         <v>21</v>
       </c>
@@ -15463,6 +17163,10 @@
       <c r="B154" t="s">
         <v>4</v>
       </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="D154" t="s">
         <v>27</v>
       </c>
@@ -15477,6 +17181,10 @@
       <c r="B155" t="s">
         <v>2</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D155" t="s">
         <v>22</v>
       </c>
@@ -15491,6 +17199,10 @@
       <c r="B156" t="s">
         <v>4</v>
       </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D156" t="s">
         <v>27</v>
       </c>
@@ -15505,6 +17217,10 @@
       <c r="B157" t="s">
         <v>2</v>
       </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
@@ -15519,6 +17235,10 @@
       <c r="B158" t="s">
         <v>2</v>
       </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D158" t="s">
         <v>22</v>
       </c>
@@ -15533,6 +17253,10 @@
       <c r="B159" t="s">
         <v>8</v>
       </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D159" t="s">
         <v>42</v>
       </c>
@@ -15547,6 +17271,10 @@
       <c r="B160" t="s">
         <v>4</v>
       </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
       <c r="D160" t="s">
         <v>27</v>
       </c>
@@ -15561,6 +17289,10 @@
       <c r="B161" t="s">
         <v>3</v>
       </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="K161" t="s">
         <v>439</v>
       </c>
@@ -15572,6 +17304,10 @@
       <c r="B162" t="s">
         <v>4</v>
       </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>-192</v>
+      </c>
       <c r="D162" t="s">
         <v>27</v>
       </c>
@@ -15586,6 +17322,10 @@
       <c r="B163" t="s">
         <v>4</v>
       </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
       <c r="D163" t="s">
         <v>29</v>
       </c>
@@ -15600,6 +17340,10 @@
       <c r="B164" t="s">
         <v>43</v>
       </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="K164" t="s">
         <v>440</v>
       </c>
@@ -15611,6 +17355,10 @@
       <c r="B165" t="s">
         <v>117</v>
       </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K165" t="s">
         <v>440</v>
       </c>
@@ -15622,6 +17370,10 @@
       <c r="B166" t="s">
         <v>4</v>
       </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
@@ -15636,6 +17388,10 @@
       <c r="B167" t="s">
         <v>2</v>
       </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D167" t="s">
         <v>21</v>
       </c>
@@ -15650,6 +17406,10 @@
       <c r="B168" t="s">
         <v>4</v>
       </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
@@ -15664,6 +17424,10 @@
       <c r="B169" t="s">
         <v>5</v>
       </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K169" t="s">
         <v>442</v>
       </c>
@@ -15675,6 +17439,10 @@
       <c r="B170" t="s">
         <v>4</v>
       </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
@@ -15689,6 +17457,10 @@
       <c r="B171" t="s">
         <v>5</v>
       </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K171" t="s">
         <v>442</v>
       </c>
@@ -15700,6 +17472,10 @@
       <c r="B172" t="s">
         <v>4</v>
       </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
@@ -15714,6 +17490,10 @@
       <c r="B173" t="s">
         <v>4</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
@@ -15728,6 +17508,10 @@
       <c r="B174" t="s">
         <v>3</v>
       </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
       <c r="K174" t="s">
         <v>443</v>
       </c>
@@ -15739,6 +17523,10 @@
       <c r="B175" t="s">
         <v>3</v>
       </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="K175" t="s">
         <v>444</v>
       </c>
@@ -15750,6 +17538,10 @@
       <c r="B176" t="s">
         <v>4</v>
       </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D176" t="s">
         <v>27</v>
       </c>
@@ -15764,6 +17556,10 @@
       <c r="B177" t="s">
         <v>2</v>
       </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D177" t="s">
         <v>21</v>
       </c>
@@ -15778,6 +17574,10 @@
       <c r="B178" t="s">
         <v>4</v>
       </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D178" t="s">
         <v>27</v>
       </c>
@@ -15792,6 +17592,10 @@
       <c r="B179" t="s">
         <v>43</v>
       </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="K179" t="s">
         <v>445</v>
       </c>
@@ -15803,6 +17607,10 @@
       <c r="B180" t="s">
         <v>4</v>
       </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="D180" t="s">
         <v>29</v>
       </c>
@@ -15817,6 +17625,10 @@
       <c r="B181" t="s">
         <v>4</v>
       </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
       <c r="D181" t="s">
         <v>27</v>
       </c>
@@ -15831,6 +17643,10 @@
       <c r="B182" t="s">
         <v>2</v>
       </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D182" t="s">
         <v>21</v>
       </c>
@@ -15845,6 +17661,10 @@
       <c r="B183" t="s">
         <v>4</v>
       </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D183" t="s">
         <v>27</v>
       </c>
@@ -15859,6 +17679,10 @@
       <c r="B184" t="s">
         <v>2</v>
       </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D184" t="s">
         <v>21</v>
       </c>
@@ -15873,6 +17697,10 @@
       <c r="B185" t="s">
         <v>2</v>
       </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="D185" t="s">
         <v>21</v>
       </c>
@@ -15887,6 +17715,10 @@
       <c r="B186" t="s">
         <v>2</v>
       </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D186" t="s">
         <v>21</v>
       </c>
@@ -15901,6 +17733,10 @@
       <c r="B187" t="s">
         <v>4</v>
       </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
@@ -15915,6 +17751,10 @@
       <c r="B188" t="s">
         <v>2</v>
       </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D188" t="s">
         <v>21</v>
       </c>
@@ -15929,6 +17769,10 @@
       <c r="B189" t="s">
         <v>4</v>
       </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D189" t="s">
         <v>27</v>
       </c>
@@ -15943,6 +17787,10 @@
       <c r="B190" t="s">
         <v>2</v>
       </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="D190" t="s">
         <v>21</v>
       </c>
@@ -15957,6 +17805,10 @@
       <c r="B191" t="s">
         <v>4</v>
       </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
@@ -15971,6 +17823,10 @@
       <c r="B192" t="s">
         <v>2</v>
       </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D192" t="s">
         <v>21</v>
       </c>
@@ -15985,6 +17841,10 @@
       <c r="B193" t="s">
         <v>2</v>
       </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="D193" t="s">
         <v>21</v>
       </c>
@@ -15999,6 +17859,10 @@
       <c r="B194" t="s">
         <v>4</v>
       </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="D194" t="s">
         <v>27</v>
       </c>
@@ -16013,6 +17877,10 @@
       <c r="B195" t="s">
         <v>2</v>
       </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D195" t="s">
         <v>21</v>
       </c>
@@ -16027,6 +17895,10 @@
       <c r="B196" t="s">
         <v>4</v>
       </c>
+      <c r="C196">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="D196" t="s">
         <v>27</v>
       </c>
@@ -16041,6 +17913,10 @@
       <c r="B197" t="s">
         <v>4</v>
       </c>
+      <c r="C197">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D197" t="s">
         <v>29</v>
       </c>
@@ -16054,6 +17930,10 @@
       </c>
       <c r="B198" t="s">
         <v>4</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198" si="3">A199-A198</f>
+        <v>75</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
@@ -16077,10 +17957,10 @@
   <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16194,6 +18074,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <f>A6-A5</f>
+        <v>6</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -16208,6 +18092,10 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>4</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -16222,6 +18110,10 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
@@ -16236,6 +18128,10 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -16250,6 +18146,10 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
@@ -16264,6 +18164,10 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -16278,6 +18182,10 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D11" t="s">
         <v>42</v>
       </c>
@@ -16292,6 +18200,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -16306,6 +18218,10 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
@@ -16320,6 +18236,10 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -16334,6 +18254,10 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -16348,6 +18272,10 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -16362,6 +18290,10 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -16376,6 +18308,10 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
@@ -16390,6 +18326,10 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -16404,6 +18344,10 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -16418,6 +18362,10 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
@@ -16432,6 +18380,10 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
@@ -16446,6 +18398,10 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
@@ -16460,6 +18416,10 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
@@ -16474,6 +18434,10 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
@@ -16488,6 +18452,10 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="K26" t="s">
         <v>459</v>
       </c>
@@ -16499,6 +18467,10 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
@@ -16513,6 +18485,10 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -16527,6 +18503,10 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -16541,6 +18521,10 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
@@ -16555,6 +18539,10 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
@@ -16569,6 +18557,10 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K32" t="s">
         <v>462</v>
       </c>
@@ -16580,6 +18572,10 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
@@ -16594,6 +18590,10 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="D34" t="s">
         <v>29</v>
       </c>
@@ -16608,6 +18608,10 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
@@ -16622,6 +18626,10 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
@@ -16636,6 +18644,10 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
@@ -16650,6 +18662,10 @@
       <c r="B38" t="s">
         <v>2</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
@@ -16664,6 +18680,10 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
@@ -16678,6 +18698,10 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
@@ -16692,6 +18716,10 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
@@ -16706,6 +18734,10 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="D42" t="s">
         <v>118</v>
       </c>
@@ -16720,6 +18752,10 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
@@ -16734,6 +18770,10 @@
       <c r="B44" t="s">
         <v>43</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K44" t="s">
         <v>470</v>
       </c>
@@ -16745,6 +18785,10 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
@@ -16759,6 +18803,10 @@
       <c r="B46" t="s">
         <v>43</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K46" t="s">
         <v>470</v>
       </c>
@@ -16770,6 +18818,10 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
@@ -16784,6 +18836,10 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D48" t="s">
         <v>29</v>
       </c>
@@ -16798,6 +18854,10 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
@@ -16812,6 +18872,10 @@
       <c r="B50" t="s">
         <v>43</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
       <c r="K50" t="s">
         <v>472</v>
       </c>
@@ -16823,6 +18887,10 @@
       <c r="B51" t="s">
         <v>4</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
@@ -16837,6 +18905,10 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
@@ -16851,6 +18923,10 @@
       <c r="B53" t="s">
         <v>2</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
@@ -16865,6 +18941,10 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
@@ -16879,6 +18959,10 @@
       <c r="B55" t="s">
         <v>2</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
@@ -16893,6 +18977,10 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
@@ -16907,6 +18995,10 @@
       <c r="B57" t="s">
         <v>2</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D57" t="s">
         <v>118</v>
       </c>
@@ -16921,6 +19013,10 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
@@ -16935,6 +19031,10 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
@@ -16949,6 +19049,10 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
@@ -16963,6 +19067,10 @@
       <c r="B61" t="s">
         <v>3</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="K61" t="s">
         <v>477</v>
       </c>
@@ -16974,6 +19082,10 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
@@ -16988,6 +19100,10 @@
       <c r="B63" t="s">
         <v>3</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K63" t="s">
         <v>479</v>
       </c>
@@ -16999,6 +19115,10 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
@@ -17013,6 +19133,10 @@
       <c r="B65" t="s">
         <v>3</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="K65" t="s">
         <v>481</v>
       </c>
@@ -17024,6 +19148,10 @@
       <c r="B66" t="s">
         <v>2</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
@@ -17038,6 +19166,10 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
@@ -17052,6 +19184,10 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D68" t="s">
         <v>29</v>
       </c>
@@ -17066,6 +19202,10 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
@@ -17080,6 +19220,10 @@
       <c r="B70" t="s">
         <v>5</v>
       </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
+        <v>4</v>
+      </c>
       <c r="K70" t="s">
         <v>486</v>
       </c>
@@ -17091,6 +19235,10 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
@@ -17105,6 +19253,10 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="D72" t="s">
         <v>42</v>
       </c>
@@ -17122,6 +19274,10 @@
       <c r="B73" t="s">
         <v>4</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
@@ -17139,6 +19295,10 @@
       <c r="B74" t="s">
         <v>2</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
@@ -17153,6 +19313,10 @@
       <c r="B75" t="s">
         <v>4</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
@@ -17167,6 +19331,10 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D76" t="s">
         <v>42</v>
       </c>
@@ -17181,6 +19349,10 @@
       <c r="B77" t="s">
         <v>4</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
@@ -17195,6 +19367,10 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D78" t="s">
         <v>42</v>
       </c>
@@ -17209,6 +19385,10 @@
       <c r="B79" t="s">
         <v>2</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="D79" t="s">
         <v>21</v>
       </c>
@@ -17223,6 +19403,10 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
@@ -17237,6 +19421,10 @@
       <c r="B81" t="s">
         <v>4</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
@@ -17251,6 +19439,10 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
@@ -17265,6 +19457,10 @@
       <c r="B83" t="s">
         <v>4</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
@@ -17279,6 +19475,10 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
@@ -17293,6 +19493,10 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D85" t="s">
         <v>29</v>
       </c>
@@ -17305,7 +19509,11 @@
         <v>1244</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -17321,6 +19529,10 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
@@ -17335,6 +19547,10 @@
       <c r="B88" t="s">
         <v>2</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D88" t="s">
         <v>118</v>
       </c>
@@ -17349,6 +19565,10 @@
       <c r="B89" t="s">
         <v>4</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D89" t="s">
         <v>27</v>
       </c>
@@ -17363,6 +19583,10 @@
       <c r="B90" t="s">
         <v>43</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K90" t="s">
         <v>496</v>
       </c>
@@ -17374,6 +19598,10 @@
       <c r="B91" t="s">
         <v>4</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="D91" t="s">
         <v>27</v>
       </c>
@@ -17388,6 +19616,10 @@
       <c r="B92" t="s">
         <v>43</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K92" t="s">
         <v>496</v>
       </c>
@@ -17399,6 +19631,10 @@
       <c r="B93" t="s">
         <v>4</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D93" t="s">
         <v>27</v>
       </c>
@@ -17413,6 +19649,10 @@
       <c r="B94" t="s">
         <v>2</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
@@ -17427,6 +19667,10 @@
       <c r="B95" t="s">
         <v>4</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
@@ -17441,6 +19685,10 @@
       <c r="B96" t="s">
         <v>3</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="K96" t="s">
         <v>500</v>
       </c>
@@ -17452,6 +19700,10 @@
       <c r="B97" t="s">
         <v>4</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
@@ -17466,6 +19718,10 @@
       <c r="B98" t="s">
         <v>3</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K98" t="s">
         <v>498</v>
       </c>
@@ -17477,6 +19733,10 @@
       <c r="B99" t="s">
         <v>3</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="K99" t="s">
         <v>498</v>
       </c>
@@ -17488,6 +19748,10 @@
       <c r="B100" t="s">
         <v>43</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="K100" t="s">
         <v>499</v>
       </c>
@@ -17499,6 +19763,10 @@
       <c r="B101" t="s">
         <v>43</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K101" t="s">
         <v>501</v>
       </c>
@@ -17510,6 +19778,10 @@
       <c r="B102" t="s">
         <v>3</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="K102" t="s">
         <v>502</v>
       </c>
@@ -17521,6 +19793,10 @@
       <c r="B103" t="s">
         <v>4</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="D103" t="s">
         <v>27</v>
       </c>
@@ -17535,6 +19811,10 @@
       <c r="B104" t="s">
         <v>2</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D104" t="s">
         <v>21</v>
       </c>
@@ -17549,6 +19829,10 @@
       <c r="B105" t="s">
         <v>4</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
@@ -17563,6 +19847,10 @@
       <c r="B106" t="s">
         <v>2</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D106" t="s">
         <v>21</v>
       </c>
@@ -17577,6 +19865,10 @@
       <c r="B107" t="s">
         <v>4</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
@@ -17591,6 +19883,10 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D108" t="s">
         <v>42</v>
       </c>
@@ -17605,6 +19901,10 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="D109" t="s">
         <v>27</v>
       </c>
@@ -17619,6 +19919,10 @@
       <c r="B110" t="s">
         <v>3</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="K110" t="s">
         <v>505</v>
       </c>
@@ -17630,6 +19934,10 @@
       <c r="B111" t="s">
         <v>4</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D111" t="s">
         <v>27</v>
       </c>
@@ -17644,6 +19952,10 @@
       <c r="B112" t="s">
         <v>3</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="K112" t="s">
         <v>506</v>
       </c>
@@ -17655,6 +19967,10 @@
       <c r="B113" t="s">
         <v>4</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
@@ -17669,6 +19985,10 @@
       <c r="B114" t="s">
         <v>2</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D114" t="s">
         <v>21</v>
       </c>
@@ -17683,6 +20003,10 @@
       <c r="B115" t="s">
         <v>3</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="K115" t="s">
         <v>508</v>
       </c>
@@ -17694,6 +20018,10 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
@@ -17708,6 +20036,10 @@
       <c r="B117" t="s">
         <v>2</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D117" t="s">
         <v>21</v>
       </c>
@@ -17722,6 +20054,10 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
@@ -17736,6 +20072,10 @@
       <c r="B119" t="s">
         <v>43</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K119" t="s">
         <v>510</v>
       </c>
@@ -17747,6 +20087,10 @@
       <c r="B120" t="s">
         <v>4</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
@@ -17761,6 +20105,10 @@
       <c r="B121" t="s">
         <v>2</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D121" t="s">
         <v>21</v>
       </c>
@@ -17775,6 +20123,10 @@
       <c r="B122" t="s">
         <v>4</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D122" t="s">
         <v>27</v>
       </c>
@@ -17789,6 +20141,10 @@
       <c r="B123" t="s">
         <v>3</v>
       </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="K123" t="s">
         <v>512</v>
       </c>
@@ -17800,6 +20156,10 @@
       <c r="B124" t="s">
         <v>4</v>
       </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="D124" t="s">
         <v>27</v>
       </c>
@@ -17814,6 +20174,10 @@
       <c r="B125" t="s">
         <v>43</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="K125" t="s">
         <v>513</v>
       </c>
@@ -17825,6 +20189,10 @@
       <c r="B126" t="s">
         <v>4</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
@@ -17839,6 +20207,10 @@
       <c r="B127" t="s">
         <v>43</v>
       </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="K127" t="s">
         <v>516</v>
       </c>
@@ -17850,6 +20222,10 @@
       <c r="B128" t="s">
         <v>2</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="D128" t="s">
         <v>122</v>
       </c>
@@ -17864,6 +20240,10 @@
       <c r="B129" t="s">
         <v>4</v>
       </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="D129" t="s">
         <v>27</v>
       </c>
@@ -17881,6 +20261,10 @@
       <c r="B130" t="s">
         <v>2</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D130" t="s">
         <v>23</v>
       </c>
@@ -17895,6 +20279,10 @@
       <c r="B131" t="s">
         <v>4</v>
       </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="D131" t="s">
         <v>27</v>
       </c>
@@ -17909,6 +20297,10 @@
       <c r="B132" t="s">
         <v>2</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
@@ -17923,6 +20315,10 @@
       <c r="B133" t="s">
         <v>2</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D133" t="s">
         <v>21</v>
       </c>
@@ -17937,6 +20333,10 @@
       <c r="B134" t="s">
         <v>4</v>
       </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C175" si="2">A135-A134</f>
+        <v>12</v>
+      </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
@@ -17951,6 +20351,10 @@
       <c r="B135" t="s">
         <v>2</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
@@ -17965,6 +20369,10 @@
       <c r="B136" t="s">
         <v>4</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
@@ -17979,6 +20387,10 @@
       <c r="B137" t="s">
         <v>2</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D137" t="s">
         <v>21</v>
       </c>
@@ -17993,6 +20405,10 @@
       <c r="B138" t="s">
         <v>4</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="D138" t="s">
         <v>27</v>
       </c>
@@ -18007,6 +20423,10 @@
       <c r="B139" t="s">
         <v>2</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="D139" t="s">
         <v>21</v>
       </c>
@@ -18021,6 +20441,10 @@
       <c r="B140" t="s">
         <v>4</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
@@ -18035,6 +20459,10 @@
       <c r="B141" t="s">
         <v>2</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D141" t="s">
         <v>118</v>
       </c>
@@ -18049,6 +20477,10 @@
       <c r="B142" t="s">
         <v>2</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="D142" t="s">
         <v>21</v>
       </c>
@@ -18063,6 +20495,10 @@
       <c r="B143" t="s">
         <v>4</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="D143" t="s">
         <v>27</v>
       </c>
@@ -18077,6 +20513,10 @@
       <c r="B144" t="s">
         <v>4</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D144" t="s">
         <v>29</v>
       </c>
@@ -18091,6 +20531,10 @@
       <c r="B145" t="s">
         <v>4</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="D145" t="s">
         <v>27</v>
       </c>
@@ -18105,6 +20549,10 @@
       <c r="B146" t="s">
         <v>43</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="K146" t="s">
         <v>526</v>
       </c>
@@ -18116,6 +20564,10 @@
       <c r="B147" t="s">
         <v>4</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
@@ -18130,6 +20582,10 @@
       <c r="B148" t="s">
         <v>3</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
       <c r="K148" t="s">
         <v>528</v>
       </c>
@@ -18141,6 +20597,10 @@
       <c r="B149" t="s">
         <v>3</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
       <c r="K149" t="s">
         <v>529</v>
       </c>
@@ -18152,6 +20612,10 @@
       <c r="B150" t="s">
         <v>8</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D150" t="s">
         <v>42</v>
       </c>
@@ -18166,6 +20630,10 @@
       <c r="B151" t="s">
         <v>3</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="K151" t="s">
         <v>530</v>
       </c>
@@ -18177,6 +20645,10 @@
       <c r="B152" t="s">
         <v>4</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
       <c r="D152" t="s">
         <v>27</v>
       </c>
@@ -18191,6 +20663,10 @@
       <c r="B153" t="s">
         <v>2</v>
       </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="D153" t="s">
         <v>20</v>
       </c>
@@ -18205,6 +20681,10 @@
       <c r="B154" t="s">
         <v>4</v>
       </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="D154" t="s">
         <v>27</v>
       </c>
@@ -18219,6 +20699,10 @@
       <c r="B155" t="s">
         <v>3</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="K155" t="s">
         <v>533</v>
       </c>
@@ -18230,6 +20714,10 @@
       <c r="B156" t="s">
         <v>4</v>
       </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="D156" t="s">
         <v>27</v>
       </c>
@@ -18244,6 +20732,10 @@
       <c r="B157" t="s">
         <v>5</v>
       </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="K157" t="s">
         <v>534</v>
       </c>
@@ -18255,6 +20747,10 @@
       <c r="B158" t="s">
         <v>4</v>
       </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D158" t="s">
         <v>27</v>
       </c>
@@ -18269,6 +20765,10 @@
       <c r="B159" t="s">
         <v>4</v>
       </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="D159" t="s">
         <v>29</v>
       </c>
@@ -18283,6 +20783,10 @@
       <c r="B160" t="s">
         <v>4</v>
       </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
       <c r="D160" t="s">
         <v>27</v>
       </c>
@@ -18297,6 +20801,10 @@
       <c r="B161" t="s">
         <v>2</v>
       </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D161" t="s">
         <v>23</v>
       </c>
@@ -18311,6 +20819,10 @@
       <c r="B162" t="s">
         <v>5</v>
       </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="K162" t="s">
         <v>536</v>
       </c>
@@ -18322,6 +20834,10 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D163" t="s">
         <v>42</v>
       </c>
@@ -18336,6 +20852,10 @@
       <c r="B164" t="s">
         <v>4</v>
       </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D164" t="s">
         <v>27</v>
       </c>
@@ -18350,6 +20870,10 @@
       <c r="B165" t="s">
         <v>2</v>
       </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D165" t="s">
         <v>21</v>
       </c>
@@ -18364,6 +20888,10 @@
       <c r="B166" t="s">
         <v>4</v>
       </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
@@ -18378,6 +20906,10 @@
       <c r="B167" t="s">
         <v>3</v>
       </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="K167" t="s">
         <v>538</v>
       </c>
@@ -18389,6 +20921,10 @@
       <c r="B168" t="s">
         <v>4</v>
       </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
@@ -18406,6 +20942,10 @@
       <c r="B169" t="s">
         <v>2</v>
       </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="D169" t="s">
         <v>21</v>
       </c>
@@ -18423,6 +20963,10 @@
       <c r="B170" t="s">
         <v>4</v>
       </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
@@ -18437,6 +20981,10 @@
       <c r="B171" t="s">
         <v>2</v>
       </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D171" t="s">
         <v>23</v>
       </c>
@@ -18451,6 +20999,10 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="D172" t="s">
         <v>42</v>
       </c>
@@ -18465,6 +21017,10 @@
       <c r="B173" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="F173" s="15" t="s">
         <v>540</v>
       </c>
@@ -18479,6 +21035,10 @@
       <c r="B174" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="D174" s="10" t="s">
         <v>29</v>
       </c>
@@ -18493,6 +21053,10 @@
       <c r="B175" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="D175" s="10" t="s">
         <v>21</v>
       </c>
@@ -18506,7 +21070,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R4" xr:uid="{A27CCF33-C10B-4D92-A4D0-05C728CB57A0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FC28B-2E88-4ADE-8295-D1BBAD3FEDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3116ED-BD39-46FD-9B58-DAF2D96184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$R$185</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$R$199</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$R$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -14408,11 +14409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5535172A-DE63-4C4A-8887-89A880B3E46D}">
   <dimension ref="A1:R199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J184" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C198"/>
+      <selection pane="bottomRight" activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16756,7 +16757,7 @@
         <v>1600</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <f t="shared" si="1"/>
@@ -17948,6 +17949,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:R199" xr:uid="{5535172A-DE63-4C4A-8887-89A880B3E46D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17956,7 +17958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27CCF33-C10B-4D92-A4D0-05C728CB57A0}">
   <dimension ref="A1:R176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_MI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3116ED-BD39-46FD-9B58-DAF2D96184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF00298-790F-4D42-AE51-1794ECA51D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$R$185</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$R$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$R$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$R$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$R$199</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$R$176</definedName>
   </definedNames>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="540">
   <si>
     <t>Point</t>
   </si>
@@ -1670,9 +1672,6 @@
   </si>
   <si>
     <t>GOPR0698</t>
-  </si>
-  <si>
-    <t>Platygira</t>
   </si>
 </sst>
 </file>
@@ -2051,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2645,7 +2644,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>51</v>
       </c>
@@ -4639,6 +4640,9 @@
       <c r="C144" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>94</v>
@@ -5370,10 +5374,10 @@
   <dimension ref="A1:R236"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7211,6 +7215,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
       <c r="K107" s="10" t="s">
         <v>169</v>
       </c>
@@ -9412,7 +9419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R4" xr:uid="{3A0BD0E5-A995-472A-9902-03FBB6A14933}"/>
+  <autoFilter ref="A4:R236" xr:uid="{3A0BD0E5-A995-472A-9902-03FBB6A14933}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9422,10 +9429,10 @@
   <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C163" sqref="C163"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12179,6 +12186,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:R162" xr:uid="{1E611947-83F2-462A-B612-1FFF8AC279D4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12188,10 +12196,10 @@
   <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C123"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14410,10 +14418,10 @@
   <dimension ref="A1:R199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B200" sqref="B200"/>
+      <selection pane="bottomRight" activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17959,10 +17967,10 @@
   <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -21023,8 +21031,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="D173" s="20"/>
       <c r="F173" s="15" t="s">
-        <v>540</v>
+        <v>114</v>
       </c>
       <c r="K173" t="s">
         <v>539</v>
@@ -21072,6 +21081,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:R176" xr:uid="{A27CCF33-C10B-4D92-A4D0-05C728CB57A0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>